--- a/Indicator predictions/Action_vs_Market_Comparison_with_Penalty.xlsx
+++ b/Indicator predictions/Action_vs_Market_Comparison_with_Penalty.xlsx
@@ -215,7 +215,7 @@
     <t>Cautious</t>
   </si>
   <si>
-    <t>normalized_score_1_5</t>
+    <t>normalized_score_0_5</t>
   </si>
 </sst>
 </file>
@@ -14027,7 +14027,7 @@
         <v>-10</v>
       </c>
       <c r="C2">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14038,7 +14038,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -14049,7 +14049,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -14060,7 +14060,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -14071,7 +14071,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -14082,7 +14082,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -14093,7 +14093,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>4.81</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -14104,7 +14104,7 @@
         <v>-6</v>
       </c>
       <c r="C9">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.29</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -14126,7 +14126,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -14137,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -14159,7 +14159,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -14170,7 +14170,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -14181,7 +14181,7 @@
         <v>-6</v>
       </c>
       <c r="C16">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -14192,7 +14192,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -14203,7 +14203,7 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -14214,7 +14214,7 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -14225,7 +14225,7 @@
         <v>-6</v>
       </c>
       <c r="C20">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -14236,7 +14236,7 @@
         <v>-4</v>
       </c>
       <c r="C21">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -14247,7 +14247,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -14258,7 +14258,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -14269,7 +14269,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -14280,7 +14280,7 @@
         <v>-10</v>
       </c>
       <c r="C25">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -14291,7 +14291,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -14302,7 +14302,7 @@
         <v>-24</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -14313,7 +14313,7 @@
         <v>-3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -14324,7 +14324,7 @@
         <v>-10</v>
       </c>
       <c r="C29">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -14335,7 +14335,7 @@
         <v>6</v>
       </c>
       <c r="C30">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -14346,7 +14346,7 @@
         <v>-12</v>
       </c>
       <c r="C31">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -14357,7 +14357,7 @@
         <v>-8</v>
       </c>
       <c r="C32">
-        <v>2.52</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -14368,7 +14368,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -14379,7 +14379,7 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -14390,7 +14390,7 @@
         <v>-14</v>
       </c>
       <c r="C35">
-        <v>1.95</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -14401,7 +14401,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>4.24</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -14412,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3.29</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -14423,7 +14423,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -14434,7 +14434,7 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>4.81</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -14445,7 +14445,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>3.38</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -14456,7 +14456,7 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -14467,7 +14467,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -14478,7 +14478,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>3.67</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -14489,7 +14489,7 @@
         <v>8</v>
       </c>
       <c r="C44">
-        <v>4.05</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -14500,7 +14500,7 @@
         <v>-6</v>
       </c>
       <c r="C45">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -14511,7 +14511,7 @@
         <v>-22</v>
       </c>
       <c r="C46">
-        <v>1.19</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -14522,7 +14522,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>4.62</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -14533,7 +14533,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>4.43</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -14544,7 +14544,7 @@
         <v>-16</v>
       </c>
       <c r="C49">
-        <v>1.76</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -14555,7 +14555,7 @@
         <v>-2</v>
       </c>
       <c r="C50">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
     </row>
   </sheetData>
